--- a/eagle/projects/GRSS/rev1/GRSS_BOM.xlsx
+++ b/eagle/projects/GRSS/rev1/GRSS_BOM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschwab/Documents/School_Work/RIT_5/Fall_2016/MSD/git_repo/HW/eagle/projects/GRSS/rev1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +17,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="GRSS_BOM" localSheetId="0">Sheet1!$A$1:$Y$29</definedName>
+    <definedName name="GRSS_BOM" localSheetId="0">Sheet1!$A$1:$Z$20</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
   <si>
     <t>Qty</t>
   </si>
@@ -339,54 +352,6 @@
     <t>P16073CT-ND</t>
   </si>
   <si>
-    <t>4V5</t>
-  </si>
-  <si>
-    <t>TEST_POINT_TP10R_SMD_10R_SMD</t>
-  </si>
-  <si>
-    <t>TP10R</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>Test Point (various sizes)</t>
-  </si>
-  <si>
-    <t>555OUT</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>5mm Green LED 7500mcd</t>
-  </si>
-  <si>
-    <t>BOM_LINE_ITEM_BLI2</t>
-  </si>
-  <si>
-    <t>BOM18, BOM22, BOM26, BOM30, BOM34</t>
-  </si>
-  <si>
-    <t>superbrightleds.com</t>
-  </si>
-  <si>
-    <t>RL5-G7532</t>
-  </si>
-  <si>
-    <t>5mm Red LED 8000mcd</t>
-  </si>
-  <si>
-    <t>BOM_LINE_ITEM_BLI1</t>
-  </si>
-  <si>
-    <t>BOM2, BOM6, BOM10, BOM14</t>
-  </si>
-  <si>
-    <t>RL5-R8030</t>
-  </si>
-  <si>
     <t>9V</t>
   </si>
   <si>
@@ -411,12 +376,6 @@
     <t>BH9V-PC-ND</t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
     <t>LMC555CMX/NOPB</t>
   </si>
   <si>
@@ -435,15 +394,6 @@
     <t>LMC555CMX/NOPBCT-ND</t>
   </si>
   <si>
-    <t>LOGO</t>
-  </si>
-  <si>
-    <t>SQUAD_LOGO</t>
-  </si>
-  <si>
-    <t>LOGO1</t>
-  </si>
-  <si>
     <t>LP2985AIM5-4.5/NOPB</t>
   </si>
   <si>
@@ -459,24 +409,6 @@
     <t>LP2985AIM5-4.5/NOPBCT-ND</t>
   </si>
   <si>
-    <t>Lithium 9V Battery</t>
-  </si>
-  <si>
-    <t>BOM_LINE_ITEM_BLI0</t>
-  </si>
-  <si>
-    <t>BOM1</t>
-  </si>
-  <si>
-    <t>Energizer</t>
-  </si>
-  <si>
-    <t>L522</t>
-  </si>
-  <si>
-    <t>N723-ND</t>
-  </si>
-  <si>
     <t>MOL-SL-2-RA</t>
   </si>
   <si>
@@ -531,18 +463,6 @@
     <t>WM4800-ND</t>
   </si>
   <si>
-    <t>MOUNT-HOLE_2.75</t>
-  </si>
-  <si>
-    <t>2,75_HOLE_RASPI</t>
-  </si>
-  <si>
-    <t>H1, H2, H3, H4</t>
-  </si>
-  <si>
-    <t>MOUNTING HOLE with drill center marker</t>
-  </si>
-  <si>
     <t>SL 2PIN HOUSING</t>
   </si>
   <si>
@@ -585,10 +505,7 @@
     <t>497-2487-1-ND</t>
   </si>
   <si>
-    <t>VD</t>
-  </si>
-  <si>
-    <t>TP4</t>
+    <t>Qty_2</t>
   </si>
 </sst>
 </file>
@@ -688,12 +605,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -723,12 +640,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -932,1079 +849,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <f>A2*2</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <f t="shared" ref="B3:B20" si="0">A3*2</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>0.05</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>32</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>0.1</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>32</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>48</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>0.01</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>50</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>32</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>61</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>56</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>32</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>0.1</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>63</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>32</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>68</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>0.05</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>69</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>32</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>0.1</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>74</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>32</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>78</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>81</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>0.01</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>200</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>32</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>39</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>86</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>0.1</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>83</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>32</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>87</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>89</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>92</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>0.01</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>89</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>32</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
-      </c>
-      <c r="T15" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
       </c>
       <c r="U15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="W15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
-      </c>
-      <c r="T16" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16">
+        <v>705530001</v>
+      </c>
+      <c r="L16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
       </c>
       <c r="U16" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="V16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="W16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>110</v>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="K17">
+        <v>705430001</v>
+      </c>
+      <c r="L17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
       </c>
       <c r="U17" t="s">
+        <v>125</v>
+      </c>
+      <c r="V17" t="s">
         <v>32</v>
       </c>
-      <c r="V17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18">
+        <v>50579402</v>
+      </c>
+      <c r="U18" t="s">
+        <v>131</v>
+      </c>
+      <c r="V18" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
         <v>120</v>
       </c>
-      <c r="T19" t="s">
-        <v>120</v>
+      <c r="K19">
+        <v>16020087</v>
       </c>
       <c r="U19" t="s">
+        <v>135</v>
+      </c>
+      <c r="V19" t="s">
         <v>32</v>
       </c>
-      <c r="V19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>126</v>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" t="s">
-        <v>129</v>
-      </c>
-      <c r="U21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="U20" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" t="s">
         <v>32</v>
       </c>
-      <c r="V21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" t="s">
-        <v>134</v>
-      </c>
-      <c r="U22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="W20" t="s">
         <v>144</v>
-      </c>
-      <c r="G23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J23">
-        <v>705530001</v>
-      </c>
-      <c r="K23" t="s">
-        <v>148</v>
-      </c>
-      <c r="L23" t="s">
-        <v>149</v>
-      </c>
-      <c r="M23" t="s">
-        <v>150</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="T23" t="s">
-        <v>140</v>
-      </c>
-      <c r="U23" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24">
-        <v>705430001</v>
-      </c>
-      <c r="K24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" t="s">
-        <v>150</v>
-      </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="T24" t="s">
-        <v>152</v>
-      </c>
-      <c r="U24" t="s">
-        <v>32</v>
-      </c>
-      <c r="V24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" t="s">
-        <v>147</v>
-      </c>
-      <c r="J26">
-        <v>50579402</v>
-      </c>
-      <c r="T26" t="s">
-        <v>162</v>
-      </c>
-      <c r="U26" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27">
-        <v>16020087</v>
-      </c>
-      <c r="T27" t="s">
-        <v>166</v>
-      </c>
-      <c r="U27" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" t="s">
-        <v>170</v>
-      </c>
-      <c r="T28" t="s">
-        <v>170</v>
-      </c>
-      <c r="U28" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +1814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2030,7 +1826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
